--- a/readme/Book1.xlsx
+++ b/readme/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fyp\readme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fyp\direngine\dir_engine\readme\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>fullname</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>blocked</t>
+  </si>
+  <si>
+    <t>pkg_night</t>
+  </si>
+  <si>
+    <t>pkg_day</t>
   </si>
 </sst>
 </file>
@@ -705,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -947,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -964,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -977,8 +983,8 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>43</v>
+      <c r="K13" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -991,6 +997,9 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
+      <c r="K14" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1001,6 +1010,9 @@
       </c>
       <c r="E15" t="s">
         <v>7</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
